--- a/IndexCounter/IndexCounter/bin/Debug/Женщины внешнее (Det)(15.07.2015 14-00-45).xlsx
+++ b/IndexCounter/IndexCounter/bin/Debug/Женщины внешнее (Det)(15.07.2015 14-00-45).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovachev\Desktop\LAR (Det)\Det\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\IndexCounter\IndexCounter\IndexCounter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -168,7 +168,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8155404992980533E-2"/>
+          <c:y val="0.22020948460498954"/>
+          <c:w val="0.88365338053673526"/>
+          <c:h val="0.71555556899192507"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -194,20 +204,6 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
@@ -218,8 +214,44 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5224890299565268"/>
+                  <c:y val="-5.419358101265092E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -555,11 +587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367922584"/>
-        <c:axId val="367923368"/>
+        <c:axId val="281152152"/>
+        <c:axId val="281155680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367922584"/>
+        <c:axId val="281152152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,12 +708,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367923368"/>
+        <c:crossAx val="281155680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367923368"/>
+        <c:axId val="281155680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +834,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367922584"/>
+        <c:crossAx val="281152152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1414,15 +1446,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1710,7 +1742,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
